--- a/src/main/resources/stastic/formDemo/checkForm.xlsx
+++ b/src/main/resources/stastic/formDemo/checkForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoy/Project/kwy/backend/management/src/main/resources/stastic/formDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ED08DC-3410-4C4D-B7CC-B251004B85AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C137C-425B-A242-BA7E-522209F6DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31780" yWindow="6120" windowWidth="14900" windowHeight="17740" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
+    <workbookView xWindow="24600" yWindow="6580" windowWidth="21400" windowHeight="20140" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>河南康味源食品科技有限公司</t>
   </si>
@@ -46,9 +57,6 @@
   </si>
   <si>
     <t>本期应收货款合计：45950</t>
-  </si>
-  <si>
-    <t>发货日期</t>
   </si>
   <si>
     <t>产品名称</t>
@@ -137,6 +145,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,13 +216,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -226,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,32 +258,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -284,61 +267,55 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -362,13 +339,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -734,504 +711,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A7A5FF-59AB-4221-AF14-28367C3FDB0B}">
-  <dimension ref="A1:IV26"/>
+  <dimension ref="A1:IW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="5" width="9"/>
-    <col min="6" max="6" width="6.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="6" width="9"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4">
+        <v>20230406</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="3">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>250</v>
+      </c>
+      <c r="G7" s="2">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5250</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4">
         <v>20230406</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>250</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4">
+        <v>20230406</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4">
+        <v>20230406</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>250</v>
+      </c>
+      <c r="G10" s="2">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5250</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="L10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4">
+        <v>20230406</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>325</v>
+      </c>
+      <c r="G11" s="2">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5525</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4">
+        <v>20230422</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F12" s="2">
+        <v>125</v>
+      </c>
+      <c r="G12" s="2">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2625</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4">
+        <v>20230422</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>200</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4">
+        <v>20230422</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
         <v>250</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4">
+        <v>20230422</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3">
-        <v>5250</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A8" s="3">
-        <v>20230406</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4200</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4">
+        <v>20230422</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>300</v>
+      </c>
+      <c r="G16" s="2">
         <v>17</v>
       </c>
-      <c r="E8" s="3">
-        <v>250</v>
-      </c>
-      <c r="F8" s="3">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="3">
-        <v>20230406</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="3">
-        <v>20230406</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>250</v>
-      </c>
-      <c r="F10" s="3">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5250</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="3">
-        <v>20230406</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="H16" s="2">
+        <v>5100</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3">
-        <v>325</v>
-      </c>
-      <c r="F11" s="3">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5525</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A12" s="3">
-        <v>20230422</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>125</v>
-      </c>
-      <c r="F12" s="3">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2625</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A13" s="3">
-        <v>20230422</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3">
-        <v>200</v>
-      </c>
-      <c r="F13" s="3">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A14" s="3">
-        <v>20230422</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3">
-        <v>250</v>
-      </c>
-      <c r="F14" s="3">
-        <v>20</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A15" s="3">
-        <v>20230422</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>21</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A16" s="3">
-        <v>20230422</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3">
-        <v>300</v>
-      </c>
-      <c r="F16" s="3">
-        <v>17</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:256" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:256" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="IW18"/>
+    </row>
+    <row r="19" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="IW19"/>
+    </row>
+    <row r="20" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="IV18"/>
-    </row>
-    <row r="19" spans="1:256" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="IV19"/>
-    </row>
-    <row r="20" spans="1:256" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:257" ht="23" customHeight="1">
+      <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:256" ht="23" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:256" ht="23" customHeight="1">
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:257" ht="23" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:256" ht="23" customHeight="1">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:257" ht="23" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:256" ht="23" customHeight="1">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:257" ht="23" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:256" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A25" s="20" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="IW25"/>
+    </row>
+    <row r="26" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="IV25"/>
-    </row>
-    <row r="26" spans="1:256" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="IV26"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="IW26"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E3:I3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/stastic/formDemo/checkForm.xlsx
+++ b/src/main/resources/stastic/formDemo/checkForm.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoy/Project/kwy/backend/management/src/main/resources/stastic/formDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C137C-425B-A242-BA7E-522209F6DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1604CE7-C137-9046-8742-2ADACBF3CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="6580" windowWidth="21400" windowHeight="20140" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
+    <workbookView xWindow="12520" yWindow="6380" windowWidth="21400" windowHeight="20140" xr2:uid="{90476088-DB2B-4445-8BB4-66C7F3A33D34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="对账单" sheetId="1" r:id="rId1"/>
+    <sheet name="回款记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>河南康味源食品科技有限公司</t>
   </si>
@@ -44,21 +45,12 @@
     <t>对账单</t>
   </si>
   <si>
-    <t>客户名称：新密初凡</t>
-  </si>
-  <si>
-    <t>对账日期：2023.04.01-2023.04.28</t>
-  </si>
-  <si>
     <t>期初尚欠货款：</t>
   </si>
   <si>
     <t>期末应收账款合计：</t>
   </si>
   <si>
-    <t>本期应收货款合计：45950</t>
-  </si>
-  <si>
     <t>产品名称</t>
   </si>
   <si>
@@ -80,79 +72,121 @@
     <t>备注</t>
   </si>
   <si>
-    <t>川香麻辣风味调味料</t>
-  </si>
-  <si>
-    <t>M3407</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>奥尔良风味调味料</t>
-  </si>
-  <si>
-    <t>L5026</t>
-  </si>
-  <si>
-    <t>红烧牛肉风味调味料</t>
-  </si>
-  <si>
-    <t>N1356</t>
-  </si>
-  <si>
-    <t>蟹黄风味调味料</t>
-  </si>
-  <si>
-    <t>H2821</t>
-  </si>
-  <si>
-    <t>葱香鸡汁风味调味料</t>
-  </si>
-  <si>
-    <t>F1631</t>
-  </si>
-  <si>
-    <t>截止至今天，贵公司共欠我方应收货款：肆万伍仟玖佰伍拾圆整</t>
+    <t>订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称：{customer}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对账日期：{startDate}-{endDate}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期应收货款合计：{totalAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵公司本期共欠我方应收货款：{amountByChinese}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.orderDate}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.productName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.productCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.unit}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.number}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.price}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.amount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.note}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.orderId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.payDate}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.payAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.payNote}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总欠款额：{totalDebt}</t>
   </si>
   <si>
     <t>回款记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回款日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计回款额：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总欠款额：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订购日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货日期</t>
+  </si>
+  <si>
+    <r>
+      <t>累计回款额：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{totalPayment}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.deliveredDate}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回款记录请查看Sheet2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +260,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,10 +329,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,21 +346,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -341,14 +391,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -711,535 +761,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A7A5FF-59AB-4221-AF14-28367C3FDB0B}">
-  <dimension ref="A1:IW26"/>
+  <dimension ref="A1:IN100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="6" width="9"/>
     <col min="7" max="7" width="6.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="L2" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="14" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+    <row r="4" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4">
-        <v>20230406</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2">
-        <v>250</v>
-      </c>
-      <c r="G7" s="2">
+    </row>
+    <row r="7" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2">
-        <v>5250</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4">
-        <v>20230406</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2">
-        <v>250</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:248" s="1" customFormat="1" ht="23" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4">
-        <v>20230406</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2">
-        <v>200</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4000</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4">
-        <v>20230406</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2">
-        <v>250</v>
-      </c>
-      <c r="G10" s="2">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5250</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="L10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4">
-        <v>20230406</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2">
-        <v>325</v>
-      </c>
-      <c r="G11" s="2">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5525</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4">
-        <v>20230422</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2">
-        <v>125</v>
-      </c>
-      <c r="G12" s="2">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2625</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="4">
-        <v>20230422</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2">
-        <v>200</v>
-      </c>
-      <c r="G13" s="2">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4000</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4">
-        <v>20230422</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2">
-        <v>250</v>
-      </c>
-      <c r="G14" s="2">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4">
-        <v>20230422</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2">
-        <v>200</v>
-      </c>
-      <c r="G15" s="2">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4200</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4">
-        <v>20230422</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2">
-        <v>300</v>
-      </c>
-      <c r="G16" s="2">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5100</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="IW18"/>
-    </row>
-    <row r="19" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="IW19"/>
-    </row>
-    <row r="20" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:257" ht="23" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:257" ht="23" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:257" ht="23" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:257" ht="23" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="IW25"/>
-    </row>
-    <row r="26" spans="1:257" s="1" customFormat="1" ht="23" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="IW26"/>
-    </row>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="IN9"/>
+    </row>
+    <row r="10" spans="1:248" ht="23" customHeight="1"/>
+    <row r="11" spans="1:248" ht="23" customHeight="1"/>
+    <row r="12" spans="1:248" ht="23" customHeight="1"/>
+    <row r="13" spans="1:248" ht="23" customHeight="1"/>
+    <row r="14" spans="1:248" ht="23" customHeight="1"/>
+    <row r="15" spans="1:248" ht="23" customHeight="1"/>
+    <row r="16" spans="1:248" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
+    <row r="47" ht="23" customHeight="1"/>
+    <row r="48" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
+    <row r="51" ht="23" customHeight="1"/>
+    <row r="52" ht="23" customHeight="1"/>
+    <row r="53" ht="23" customHeight="1"/>
+    <row r="54" ht="23" customHeight="1"/>
+    <row r="55" ht="23" customHeight="1"/>
+    <row r="56" ht="23" customHeight="1"/>
+    <row r="57" ht="23" customHeight="1"/>
+    <row r="58" ht="23" customHeight="1"/>
+    <row r="59" ht="23" customHeight="1"/>
+    <row r="60" ht="23" customHeight="1"/>
+    <row r="61" ht="23" customHeight="1"/>
+    <row r="62" ht="23" customHeight="1"/>
+    <row r="63" ht="23" customHeight="1"/>
+    <row r="64" ht="23" customHeight="1"/>
+    <row r="65" ht="23" customHeight="1"/>
+    <row r="66" ht="23" customHeight="1"/>
+    <row r="67" ht="23" customHeight="1"/>
+    <row r="68" ht="23" customHeight="1"/>
+    <row r="69" ht="23" customHeight="1"/>
+    <row r="70" ht="23" customHeight="1"/>
+    <row r="71" ht="23" customHeight="1"/>
+    <row r="72" ht="23" customHeight="1"/>
+    <row r="73" ht="23" customHeight="1"/>
+    <row r="74" ht="23" customHeight="1"/>
+    <row r="75" ht="23" customHeight="1"/>
+    <row r="76" ht="23" customHeight="1"/>
+    <row r="77" ht="23" customHeight="1"/>
+    <row r="78" ht="23" customHeight="1"/>
+    <row r="79" ht="23" customHeight="1"/>
+    <row r="80" ht="23" customHeight="1"/>
+    <row r="81" ht="23" customHeight="1"/>
+    <row r="82" ht="23" customHeight="1"/>
+    <row r="83" ht="23" customHeight="1"/>
+    <row r="84" ht="23" customHeight="1"/>
+    <row r="85" ht="23" customHeight="1"/>
+    <row r="86" ht="23" customHeight="1"/>
+    <row r="87" ht="23" customHeight="1"/>
+    <row r="88" ht="23" customHeight="1"/>
+    <row r="89" ht="23" customHeight="1"/>
+    <row r="90" ht="23" customHeight="1"/>
+    <row r="91" ht="23" customHeight="1"/>
+    <row r="92" ht="23" customHeight="1"/>
+    <row r="93" ht="23" customHeight="1"/>
+    <row r="94" ht="23" customHeight="1"/>
+    <row r="95" ht="23" customHeight="1"/>
+    <row r="96" ht="23" customHeight="1"/>
+    <row r="97" ht="23" customHeight="1"/>
+    <row r="98" ht="23" customHeight="1"/>
+    <row r="99" ht="23" customHeight="1"/>
+    <row r="100" ht="23" customHeight="1"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EDE224-21BD-904A-B1B1-55FBD689F39C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="23" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" ht="23" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>